--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H2">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N2">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q2">
-        <v>278.9726954381947</v>
+        <v>1732.490471323225</v>
       </c>
       <c r="R2">
-        <v>278.9726954381947</v>
+        <v>15592.41424190903</v>
       </c>
       <c r="S2">
-        <v>0.08607448781236611</v>
+        <v>0.1045911402003827</v>
       </c>
       <c r="T2">
-        <v>0.08607448781236611</v>
+        <v>0.1045911402003827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H3">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N3">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q3">
-        <v>1793.80362189424</v>
+        <v>10106.0982838495</v>
       </c>
       <c r="R3">
-        <v>1793.80362189424</v>
+        <v>90954.88455464554</v>
       </c>
       <c r="S3">
-        <v>0.5534617921943575</v>
+        <v>0.6101091809628476</v>
       </c>
       <c r="T3">
-        <v>0.5534617921943575</v>
+        <v>0.6101091809628476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H4">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N4">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q4">
-        <v>734.567435334536</v>
+        <v>4186.68518244301</v>
       </c>
       <c r="R4">
-        <v>734.567435334536</v>
+        <v>37680.16664198708</v>
       </c>
       <c r="S4">
-        <v>0.2266441009961541</v>
+        <v>0.2527518529768964</v>
       </c>
       <c r="T4">
-        <v>0.2266441009961541</v>
+        <v>0.2527518529768963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H5">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N5">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O5">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P5">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q5">
-        <v>33.37354614050173</v>
+        <v>47.26381397081889</v>
       </c>
       <c r="R5">
-        <v>33.37354614050173</v>
+        <v>425.37432573737</v>
       </c>
       <c r="S5">
-        <v>0.0102971041162789</v>
+        <v>0.002853335285388971</v>
       </c>
       <c r="T5">
-        <v>0.0102971041162789</v>
+        <v>0.002853335285388971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H6">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N6">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P6">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q6">
-        <v>214.5930011116429</v>
+        <v>275.7029589281711</v>
       </c>
       <c r="R6">
-        <v>214.5930011116429</v>
+        <v>2481.32663035354</v>
       </c>
       <c r="S6">
-        <v>0.06621071868624986</v>
+        <v>0.01664429750594389</v>
       </c>
       <c r="T6">
-        <v>0.06621071868624986</v>
+        <v>0.01664429750594389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H7">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N7">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P7">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q7">
-        <v>87.87641442091734</v>
+        <v>114.2163335918589</v>
       </c>
       <c r="R7">
-        <v>87.87641442091734</v>
+        <v>1027.94700232673</v>
       </c>
       <c r="S7">
-        <v>0.02711346839943136</v>
+        <v>0.006895285577389515</v>
       </c>
       <c r="T7">
-        <v>0.02711346839943136</v>
+        <v>0.006895285577389514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H8">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N8">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O8">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P8">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q8">
-        <v>9.726044467768327</v>
+        <v>11.02206275961144</v>
       </c>
       <c r="R8">
-        <v>9.726044467768327</v>
+        <v>99.198564836503</v>
       </c>
       <c r="S8">
-        <v>0.003000882558375417</v>
+        <v>0.0006654063214024233</v>
       </c>
       <c r="T8">
-        <v>0.003000882558375417</v>
+        <v>0.0006654063214024233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H9">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N9">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O9">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P9">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q9">
-        <v>62.53878633384925</v>
+        <v>64.29475450696955</v>
       </c>
       <c r="R9">
-        <v>62.53878633384925</v>
+        <v>578.6527905627261</v>
       </c>
       <c r="S9">
-        <v>0.01929577370874153</v>
+        <v>0.003881499952869318</v>
       </c>
       <c r="T9">
-        <v>0.01929577370874153</v>
+        <v>0.003881499952869319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H10">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N10">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O10">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P10">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q10">
-        <v>25.60980216868949</v>
+        <v>26.63559055558745</v>
       </c>
       <c r="R10">
-        <v>25.60980216868949</v>
+        <v>239.720315000287</v>
       </c>
       <c r="S10">
-        <v>0.007901671528045065</v>
+        <v>0.001608001216879241</v>
       </c>
       <c r="T10">
-        <v>0.007901671528045065</v>
+        <v>0.001608001216879241</v>
       </c>
     </row>
   </sheetData>
